--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>隔日投与など、服⽤開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
   </si>
   <si>
     <t>Purpose</t>
